--- a/Documentos/Libro1.xlsx
+++ b/Documentos/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarc\OneDrive\Escritorio\Universidad\instrumentación\Instrumentacion-Inteligente\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unizar\Documents\MASTER\2. Instrumentación Inteligente\Instrumentacion-Inteligente\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB23338-009C-4844-8D72-D486C8CD01FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A028E5-D84C-4D1B-8765-B7AF37ED1EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FC91F1C-65A9-4815-8C57-248ED56B5264}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6FC91F1C-65A9-4815-8C57-248ED56B5264}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>C1 (pF)</t>
   </si>
@@ -54,14 +54,31 @@
   </si>
   <si>
     <t>R4 (kohm)</t>
+  </si>
+  <si>
+    <t>Valor exp</t>
+  </si>
+  <si>
+    <t>Valor nominal</t>
+  </si>
+  <si>
+    <t>Tolerancia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -89,8 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,23 +444,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F85BD-2A7C-466E-9386-E662169661B4}">
-  <dimension ref="B5:C10"/>
+  <dimension ref="B4:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
         <v>517.29999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -449,36 +480,60 @@
         <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>2.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
         <v>10.26</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
         <v>2.19</v>
+      </c>
+      <c r="D10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
